--- a/excel_files/Comparison - NC_014219 & CP002394.xlsx
+++ b/excel_files/Comparison - NC_014219 & CP002394.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="56">
   <si>
     <t>NC_014219</t>
   </si>
@@ -116,6 +116,9 @@
     <t>14.0</t>
   </si>
   <si>
+    <t>8.0</t>
+  </si>
+  <si>
     <t>11.0</t>
   </si>
   <si>
@@ -125,85 +128,61 @@
     <t>-999</t>
   </si>
   <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>0.5*</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>2.0*</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>1.0*</t>
+  </si>
+  <si>
+    <t>0*</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
     <t>6.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>0.5*</t>
-  </si>
-  <si>
-    <t>19.5</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>18.5</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>2.0*</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>22.5</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>1.0*</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>0*</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>21.0</t>
   </si>
 </sst>
 </file>
@@ -638,34 +617,34 @@
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>31</v>
@@ -674,19 +653,19 @@
         <v>31</v>
       </c>
       <c r="S3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s">
         <v>37</v>
       </c>
       <c r="V3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" t="s">
         <v>35</v>
-      </c>
-      <c r="W3" t="s">
-        <v>34</v>
       </c>
       <c r="X3" t="s">
         <v>38</v>
@@ -709,34 +688,34 @@
         <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>31</v>
@@ -745,19 +724,19 @@
         <v>31</v>
       </c>
       <c r="S4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
         <v>37</v>
       </c>
       <c r="V4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" t="s">
         <v>35</v>
-      </c>
-      <c r="W4" t="s">
-        <v>34</v>
       </c>
       <c r="X4" t="s">
         <v>38</v>
@@ -786,28 +765,28 @@
         <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s">
         <v>32</v>
@@ -816,22 +795,22 @@
         <v>32</v>
       </c>
       <c r="S5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s">
         <v>35</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s">
         <v>35</v>
       </c>
-      <c r="U5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>35</v>
-      </c>
-      <c r="W5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -842,70 +821,70 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -913,67 +892,67 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
         <v>38</v>
       </c>
       <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" t="s">
         <v>35</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" t="s">
-        <v>35</v>
-      </c>
-      <c r="U7" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" t="s">
-        <v>47</v>
       </c>
       <c r="X7" t="s">
         <v>38</v>
@@ -984,70 +963,70 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U8" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="V8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="X8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1055,70 +1034,70 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" t="s">
         <v>35</v>
-      </c>
-      <c r="K9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" t="s">
-        <v>35</v>
-      </c>
-      <c r="U9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V9" t="s">
-        <v>35</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1126,70 +1105,70 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="W10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1197,70 +1176,70 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1268,70 +1247,70 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1339,70 +1318,70 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="Q13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1410,70 +1389,70 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1481,70 +1460,70 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
         <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U15" t="s">
         <v>37</v>
       </c>
       <c r="V15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1558,40 +1537,40 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
         <v>35</v>
       </c>
-      <c r="J16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" t="s">
-        <v>47</v>
-      </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N16" t="s">
         <v>32</v>
       </c>
       <c r="O16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q16" t="s">
         <v>32</v>
@@ -1600,22 +1579,22 @@
         <v>32</v>
       </c>
       <c r="S16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="X16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:24">
@@ -1623,70 +1602,70 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
         <v>48</v>
       </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="R17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="S17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U17" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W17" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
